--- a/data_raw/exportacion_leche_polvo_entera.xlsx
+++ b/data_raw/exportacion_leche_polvo_entera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inaleorguy.sharepoint.com/sites/FS/Documentos compartidos/FS/Area de Información y Estudios Economicos/6.- Pagina de internet/1- Estadísticas/Uruguay/2- Mercado externo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="8_{3D899436-D7B7-4A83-875F-059D2530D157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DEA5AB-478E-4D64-9334-E65BD2E0B88A}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="8_{3D899436-D7B7-4A83-875F-059D2530D157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC074253-6900-41F7-B354-9E2A7A576A1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -320,7 +320,6 @@
     <numFmt numFmtId="168" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
     <numFmt numFmtId="169" formatCode="#,"/>
     <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="44" x14ac:knownFonts="1">
     <font>
@@ -1560,7 +1559,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1786,7 +1785,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,21 +1803,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Énfasis1" xfId="11" builtinId="30" customBuiltin="1"/>
@@ -2541,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:R230"/>
+  <dimension ref="A9:XFD233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P80" sqref="B61:P80"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,12 +2564,12 @@
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="31" t="s">
         <v>2</v>
       </c>
@@ -2580,12 +2577,12 @@
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13"/>
-      <c r="G13" s="125" t="s">
+      <c r="G13" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2967,11 +2964,11 @@
         <v>44308023.810000002</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ref="O22:O34" si="1">SUM(C22:N22)</f>
+        <f t="shared" ref="O22:O33" si="1">SUM(C22:N22)</f>
         <v>339274794.01999992</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" ref="P22:P34" si="2">O22/O21-1</f>
+        <f t="shared" ref="P22:P33" si="2">O22/O21-1</f>
         <v>0.56931732028483073</v>
       </c>
     </row>
@@ -3520,2173 +3517,2250 @@
       <c r="Q33" s="116"/>
       <c r="R33" s="104"/>
     </row>
-    <row r="34" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="90">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="89">
         <v>2025</v>
       </c>
-      <c r="C34" s="97">
-        <v>51688032.860000007</v>
-      </c>
-      <c r="D34" s="98">
-        <v>51840212.350000009</v>
-      </c>
-      <c r="E34" s="99">
-        <v>44753026.469999976</v>
-      </c>
-      <c r="F34" s="100">
-        <v>40667949.469999999</v>
-      </c>
-      <c r="G34" s="100">
-        <v>49471774.779999994</v>
-      </c>
-      <c r="H34" s="99">
-        <v>48434853.270000003</v>
-      </c>
-      <c r="I34" s="100">
-        <v>46386281.429999992</v>
-      </c>
-      <c r="J34" s="100">
-        <v>67542642.38000004</v>
-      </c>
-      <c r="K34" s="100">
-        <v>71164921.290000007</v>
-      </c>
-      <c r="L34" s="100">
-        <v>67605200</v>
-      </c>
-      <c r="M34" s="99">
-        <v>68362435.220000058</v>
-      </c>
-      <c r="N34" s="99">
-        <v>63238076.390000038</v>
-      </c>
-      <c r="O34" s="16">
-        <f t="shared" si="1"/>
-        <v>671155405.91000009</v>
-      </c>
-      <c r="P34" s="17">
-        <f t="shared" si="2"/>
-        <v>0.1905259872274685</v>
+      <c r="C34" s="96">
+        <v>52273251.370000005</v>
+      </c>
+      <c r="D34" s="120">
+        <v>51316513.050000027</v>
+      </c>
+      <c r="E34" s="119">
+        <v>42774281.660000011</v>
+      </c>
+      <c r="F34" s="119">
+        <v>40689244.62999998</v>
+      </c>
+      <c r="G34" s="119">
+        <v>48570177.579999983</v>
+      </c>
+      <c r="H34" s="119">
+        <v>48137314.979999989</v>
+      </c>
+      <c r="I34" s="119">
+        <v>45697484.219999991</v>
+      </c>
+      <c r="J34" s="119">
+        <v>67459354.710000023</v>
+      </c>
+      <c r="K34" s="119">
+        <v>70898462.429999992</v>
+      </c>
+      <c r="L34" s="119">
+        <v>67587320.049999997</v>
+      </c>
+      <c r="M34" s="119">
+        <v>68230882.410000056</v>
+      </c>
+      <c r="N34" s="119">
+        <v>65045396.160000019</v>
+      </c>
+      <c r="O34" s="5">
+        <v>668679683.25</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0.18613443776225669</v>
       </c>
       <c r="Q34" s="116"/>
       <c r="R34" s="104"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="90">
+        <v>2026</v>
+      </c>
+      <c r="C35" s="97">
+        <v>47085142</v>
+      </c>
+      <c r="D35" s="98"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="104"/>
+    </row>
+    <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="101"/>
-    </row>
-    <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36"/>
-      <c r="G36" s="125" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="101"/>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37"/>
+      <c r="G37" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
     </row>
     <row r="38" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O38" s="10" t="s">
+      <c r="O39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P39" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="37">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="37">
         <v>2007</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C40" s="6">
         <v>2979.808</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <v>600</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="2">
         <v>2608.19</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="2">
         <v>2681.3440000000001</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G40" s="2">
         <v>650</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H40" s="2">
         <v>2301.1099999999997</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I40" s="2">
         <v>4699.4840000000004</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J40" s="2">
         <v>3601.25</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K40" s="2">
         <v>4060</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L40" s="2">
         <v>2368.9679999999998</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M40" s="2">
         <v>2783.5</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N40" s="2">
         <v>3262.0160000000001</v>
       </c>
-      <c r="O39" s="4">
-        <f t="shared" ref="O39:O44" si="3">SUM(C39:N39)</f>
+      <c r="O40" s="4">
+        <f t="shared" ref="O40:O45" si="3">SUM(C40:N40)</f>
         <v>32595.670000000002</v>
       </c>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="38">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="38">
         <v>2008</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C41" s="7">
         <v>1425</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>200</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>3267.6800000000003</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>2024.5000000000002</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G41" s="1">
         <v>3900.375</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H41" s="1">
         <v>2900</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I41" s="1">
         <v>3560</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41" s="1">
         <v>4250</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K41" s="1">
         <v>3535</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L41" s="1">
         <v>2980</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M41" s="1">
         <v>5940.92</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N41" s="1">
         <v>834</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O41" s="5">
         <f t="shared" si="3"/>
         <v>34817.474999999999</v>
       </c>
-      <c r="P40" s="3">
-        <f>+O40/O39-1</f>
+      <c r="P41" s="3">
+        <f>+O41/O40-1</f>
         <v>6.8162581103563546E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="38">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="38">
         <v>2009</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C42" s="7">
         <v>1200</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>3831.9999999999964</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>2635.0000000000005</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <v>2362.5000000000009</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G42" s="1">
         <v>3832.5</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H42" s="1">
         <v>4150.0847599999997</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I42" s="1">
         <v>5426.5999999999995</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J42" s="1">
         <v>5542.1880000000001</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K42" s="1">
         <v>5994.8000000000011</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L42" s="1">
         <v>3757.3999999999996</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M42" s="1">
         <v>6348.7999999999993</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N42" s="1">
         <v>6570.8879999999999</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O42" s="5">
         <f t="shared" si="3"/>
         <v>51652.760759999997</v>
       </c>
-      <c r="P41" s="3">
-        <f>+O41/O40-1</f>
+      <c r="P42" s="3">
+        <f>+O42/O41-1</f>
         <v>0.48352977233415118</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="38">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="38">
         <v>2010</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C43" s="7">
         <v>4034.2</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>4095.5749999999998</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>4992.25</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>7453</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G43" s="1">
         <v>3534.25</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H43" s="1">
         <v>3543.5</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I43" s="1">
         <v>4432.5</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J43" s="1">
         <v>4213.5</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K43" s="1">
         <v>5165</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L43" s="1">
         <v>7413</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M43" s="1">
         <v>6389.8279999999995</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N43" s="1">
         <v>4767.75</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O43" s="5">
         <f t="shared" si="3"/>
         <v>60034.353000000003</v>
       </c>
-      <c r="P42" s="3">
-        <f>+O42/O41-1</f>
+      <c r="P43" s="3">
+        <f>+O43/O42-1</f>
         <v>0.16226803982355054</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="38">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="38">
         <v>2011</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C44" s="7">
         <v>4366.25</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>2664.75</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>5157.75</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>5313.8</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G44" s="1">
         <v>4493.8</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H44" s="1">
         <v>2553</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I44" s="1">
         <v>4250</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44" s="1">
         <v>3400</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K44" s="1">
         <v>5664</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L44" s="1">
         <v>3789.75</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M44" s="1">
         <v>4709.3999999999996</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N44" s="1">
         <v>2967.95</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O44" s="5">
         <f t="shared" si="3"/>
         <v>49330.45</v>
       </c>
-      <c r="P43" s="3">
-        <f>+O43/O42-1</f>
+      <c r="P44" s="3">
+        <f>+O44/O43-1</f>
         <v>-0.17829629978689043</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="38">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="38">
         <v>2012</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C45" s="7">
         <v>2836.5</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>4785.25</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>7443.4</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>6294.25</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G45" s="1">
         <v>2342.25</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H45" s="1">
         <v>1343.5</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I45" s="1">
         <v>2753.25</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J45" s="1">
         <v>6982.05</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K45" s="1">
         <v>10771</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L45" s="1">
         <v>3650</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M45" s="1">
         <v>3413.75</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N45" s="1">
         <v>5420</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O45" s="5">
         <f t="shared" si="3"/>
         <v>58035.200000000004</v>
       </c>
-      <c r="P44" s="3">
-        <f>+O44/O43-1</f>
+      <c r="P45" s="3">
+        <f>+O45/O44-1</f>
         <v>0.17645794838684847</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="38">
-        <v>2013</v>
-      </c>
-      <c r="C45" s="7">
-        <v>4663.5</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5295.5</v>
-      </c>
-      <c r="E45" s="1">
-        <v>6365.5</v>
-      </c>
-      <c r="F45" s="1">
-        <v>3940</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3460</v>
-      </c>
-      <c r="H45" s="1">
-        <v>4008.5</v>
-      </c>
-      <c r="I45" s="1">
-        <v>7644.15</v>
-      </c>
-      <c r="J45" s="1">
-        <v>11106.324999999999</v>
-      </c>
-      <c r="K45" s="1">
-        <v>6650</v>
-      </c>
-      <c r="L45" s="1">
-        <v>6836</v>
-      </c>
-      <c r="M45" s="1">
-        <v>5879.35</v>
-      </c>
-      <c r="N45" s="1">
-        <v>8893.25</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" ref="O45:O50" si="4">SUM(C45:N45)</f>
-        <v>74742.074999999997</v>
-      </c>
-      <c r="P45" s="3">
-        <f t="shared" ref="P45:P57" si="5">O45/O44-1</f>
-        <v>0.28787485870644014</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="38">
+        <v>2013</v>
+      </c>
+      <c r="C46" s="7">
+        <v>4663.5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5295.5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6365.5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3940</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3460</v>
+      </c>
+      <c r="H46" s="1">
+        <v>4008.5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>7644.15</v>
+      </c>
+      <c r="J46" s="1">
+        <v>11106.324999999999</v>
+      </c>
+      <c r="K46" s="1">
+        <v>6650</v>
+      </c>
+      <c r="L46" s="1">
+        <v>6836</v>
+      </c>
+      <c r="M46" s="1">
+        <v>5879.35</v>
+      </c>
+      <c r="N46" s="1">
+        <v>8893.25</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" ref="O46:O51" si="4">SUM(C46:N46)</f>
+        <v>74742.074999999997</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" ref="P46:P57" si="5">O46/O45-1</f>
+        <v>0.28787485870644014</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="38">
         <v>2014</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C47" s="7">
         <v>9530</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>8317</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>3849.5</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>8263</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G47" s="1">
         <v>5975</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H47" s="1">
         <v>4542</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I47" s="1">
         <v>2404.5</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47" s="1">
         <v>1524</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K47" s="1">
         <v>4335</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L47" s="1">
         <v>2995.4</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M47" s="1">
         <v>4403.5</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N47" s="1">
         <v>2263</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O47" s="5">
         <f t="shared" si="4"/>
         <v>58401.9</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P47" s="3">
         <f t="shared" si="5"/>
         <v>-0.21862083705864466</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="38">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="38">
         <v>2015</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C48" s="7">
         <v>2325</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>2684</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>12140.25</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F48" s="1">
         <v>12040.5</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G48" s="1">
         <v>8627.25</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H48" s="1">
         <v>5396.5</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I48" s="1">
         <v>6000.5</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J48" s="1">
         <v>3999.75</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K48" s="1">
         <v>15619</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L48" s="1">
         <v>9356.5</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M48" s="1">
         <v>11181.75</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N48" s="1">
         <v>7037.75</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O48" s="5">
         <f t="shared" si="4"/>
         <v>96408.75</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P48" s="3">
         <f t="shared" si="5"/>
         <v>0.65078105335614067</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="38">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="38">
         <v>2016</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C49" s="7">
         <v>3229.2</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D49" s="1">
         <v>9324.5</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>12389.25</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>21386.5</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G49" s="1">
         <v>17352.25</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H49" s="1">
         <v>8663</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I49" s="1">
         <v>10765.75</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J49" s="1">
         <v>9758</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K49" s="1">
         <v>10676.9</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L49" s="1">
         <v>8378.6999999999989</v>
       </c>
-      <c r="M48" s="40">
+      <c r="M49" s="40">
         <v>8347.9999999999964</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N49" s="1">
         <v>6428</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O49" s="5">
         <f t="shared" si="4"/>
         <v>126700.04999999999</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P49" s="3">
         <f t="shared" si="5"/>
         <v>0.31419658485355306</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="38">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="38">
         <v>2017</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C50" s="7">
         <v>9328.5999999999985</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>5525.75</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>10457.450000000001</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>5673.25</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G50" s="1">
         <v>7083.2499999999991</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <v>8581.8999999999978</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I50" s="1">
         <v>5703</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50" s="1">
         <v>5053.75</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K50" s="1">
         <v>9775.6749999999993</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L50" s="1">
         <v>14639.95</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M50" s="1">
         <v>16722.25</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N50" s="1">
         <v>9420.4599999999991</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O50" s="5">
         <f t="shared" si="4"/>
         <v>107965.285</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P50" s="3">
         <f t="shared" si="5"/>
         <v>-0.14786706871859945</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="38">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="38">
         <v>2018</v>
       </c>
-      <c r="C50" s="94">
+      <c r="C51" s="94">
         <v>6125.25</v>
       </c>
-      <c r="D50" s="118">
+      <c r="D51" s="118">
         <v>7870.9770000000008</v>
       </c>
-      <c r="E50" s="118">
+      <c r="E51" s="118">
         <v>11712.65</v>
       </c>
-      <c r="F50" s="118">
+      <c r="F51" s="118">
         <v>11863.918</v>
       </c>
-      <c r="G50" s="118">
+      <c r="G51" s="118">
         <v>9226.5419999999995</v>
       </c>
-      <c r="H50" s="118">
+      <c r="H51" s="118">
         <v>7691.25</v>
       </c>
-      <c r="I50" s="118">
+      <c r="I51" s="118">
         <v>11368.261999999999</v>
       </c>
-      <c r="J50" s="118">
+      <c r="J51" s="118">
         <v>15401.15</v>
       </c>
-      <c r="K50" s="118">
+      <c r="K51" s="118">
         <v>13329.7575</v>
       </c>
-      <c r="L50" s="118">
+      <c r="L51" s="118">
         <v>19219.25</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M51" s="118">
         <v>17836.260000000002</v>
       </c>
-      <c r="N50" s="118">
+      <c r="N51" s="118">
         <v>12509.05</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O51" s="5">
         <f t="shared" si="4"/>
         <v>144154.31649999999</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P51" s="3">
         <f t="shared" si="5"/>
         <v>0.33519136729922017</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="38" t="s">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="94">
+      <c r="C52" s="94">
         <v>11243.431500000001</v>
       </c>
-      <c r="D51" s="118">
+      <c r="D52" s="118">
         <v>7916.8434999999999</v>
       </c>
-      <c r="E51" s="118">
+      <c r="E52" s="118">
         <v>9902.2939999999999</v>
       </c>
-      <c r="F51" s="118">
+      <c r="F52" s="118">
         <v>8989.6840000000011</v>
       </c>
-      <c r="G51" s="118">
+      <c r="G52" s="118">
         <v>11946</v>
       </c>
-      <c r="H51" s="118">
+      <c r="H52" s="118">
         <v>9869.25</v>
       </c>
-      <c r="I51" s="118">
+      <c r="I52" s="118">
         <v>14083.405499999999</v>
       </c>
-      <c r="J51" s="118">
+      <c r="J52" s="118">
         <v>12908.259</v>
       </c>
-      <c r="K51" s="118">
+      <c r="K52" s="118">
         <v>9685.34</v>
       </c>
-      <c r="L51" s="118">
+      <c r="L52" s="118">
         <v>9821.0590000000011</v>
       </c>
-      <c r="M51" s="118">
+      <c r="M52" s="118">
         <v>11127.831249999999</v>
       </c>
-      <c r="N51" s="118">
+      <c r="N52" s="118">
         <v>13976.8099</v>
       </c>
-      <c r="O51" s="5">
-        <f>SUM(C51:N51)</f>
+      <c r="O52" s="5">
+        <f>SUM(C52:N52)</f>
         <v>131470.20765000003</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P52" s="3">
         <f t="shared" si="5"/>
         <v>-8.7989795643753532E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="38" t="s">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="94">
+      <c r="C53" s="94">
         <v>12912.0021</v>
       </c>
-      <c r="D52" s="118">
+      <c r="D53" s="118">
         <v>6114.0074999999997</v>
       </c>
-      <c r="E52" s="118">
+      <c r="E53" s="118">
         <v>9657.1332500000008</v>
       </c>
-      <c r="F52" s="118">
+      <c r="F53" s="118">
         <v>9189.4821499999998</v>
       </c>
-      <c r="G52" s="118">
+      <c r="G53" s="118">
         <v>11397.6891</v>
       </c>
-      <c r="H52" s="118">
+      <c r="H53" s="118">
         <v>13394.826500000001</v>
       </c>
-      <c r="I52" s="118">
+      <c r="I53" s="118">
         <v>15863.932999999999</v>
       </c>
-      <c r="J52" s="118">
+      <c r="J53" s="118">
         <v>12412.640250000002</v>
       </c>
-      <c r="K52" s="118">
+      <c r="K53" s="118">
         <v>17188.504500000003</v>
       </c>
-      <c r="L52" s="118">
+      <c r="L53" s="118">
         <v>18254.946000000004</v>
       </c>
-      <c r="M52" s="118">
+      <c r="M53" s="118">
         <v>10600.029500000001</v>
       </c>
-      <c r="N52" s="118">
+      <c r="N53" s="118">
         <v>9696.5395000000008</v>
       </c>
-      <c r="O52" s="5">
-        <f>SUM(C52:N52)</f>
+      <c r="O53" s="5">
+        <f>SUM(C53:N53)</f>
         <v>146681.73335000002</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P53" s="3">
         <f t="shared" si="5"/>
         <v>0.11570321498613678</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="94">
+      <c r="C54" s="94">
         <v>12613.502</v>
       </c>
-      <c r="D53" s="118">
+      <c r="D54" s="118">
         <v>9947.8029999999981</v>
       </c>
-      <c r="E53" s="118">
+      <c r="E54" s="118">
         <v>11397.786</v>
       </c>
-      <c r="F53" s="118">
+      <c r="F54" s="118">
         <v>9128.0250000000015</v>
       </c>
-      <c r="G53" s="118">
+      <c r="G54" s="118">
         <v>10908.964</v>
       </c>
-      <c r="H53" s="118">
+      <c r="H54" s="118">
         <v>14353.072</v>
       </c>
-      <c r="I53" s="118">
+      <c r="I54" s="118">
         <v>13207.831</v>
       </c>
-      <c r="J53" s="118">
+      <c r="J54" s="118">
         <v>12570.253999999999</v>
       </c>
-      <c r="K53" s="118">
+      <c r="K54" s="118">
         <v>14523.915500000001</v>
       </c>
-      <c r="L53" s="118">
+      <c r="L54" s="118">
         <v>9989.0480000000007</v>
       </c>
-      <c r="M53" s="118">
+      <c r="M54" s="118">
         <v>14735.202499999999</v>
       </c>
-      <c r="N53" s="118">
+      <c r="N54" s="118">
         <v>7801.0580000000018</v>
       </c>
-      <c r="O53" s="5">
-        <f t="shared" ref="O53:O57" si="6">SUM(C53:N53)</f>
+      <c r="O54" s="5">
+        <f t="shared" ref="O54:O57" si="6">SUM(C54:N54)</f>
         <v>141176.46099999998</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P54" s="3">
         <f t="shared" si="5"/>
         <v>-3.7532092267166028E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="89">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="89">
         <v>2022</v>
       </c>
-      <c r="C54" s="94">
+      <c r="C55" s="94">
         <v>11724.053</v>
       </c>
-      <c r="D54" s="118">
+      <c r="D55" s="118">
         <v>12563.712900000002</v>
       </c>
-      <c r="E54" s="118">
+      <c r="E55" s="118">
         <v>8902.6260500000008</v>
       </c>
-      <c r="F54" s="118">
+      <c r="F55" s="118">
         <v>6129.1101000000008</v>
       </c>
-      <c r="G54" s="118">
+      <c r="G55" s="118">
         <v>9715.0084999999999</v>
       </c>
-      <c r="H54" s="118">
+      <c r="H55" s="118">
         <v>10209.516500000002</v>
       </c>
-      <c r="I54" s="118">
+      <c r="I55" s="118">
         <v>9837.7562500000004</v>
       </c>
-      <c r="J54" s="118">
+      <c r="J55" s="118">
         <v>15155.111000000001</v>
       </c>
-      <c r="K54" s="118">
+      <c r="K55" s="118">
         <v>16480.157500000001</v>
       </c>
-      <c r="L54" s="118">
+      <c r="L55" s="118">
         <v>11598.053</v>
       </c>
-      <c r="M54" s="118">
+      <c r="M55" s="118">
         <v>13640.1975</v>
       </c>
-      <c r="N54" s="118">
+      <c r="N55" s="118">
         <v>12902.356000000002</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O55" s="5">
         <f t="shared" si="6"/>
         <v>138857.65830000001</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P55" s="3">
         <f t="shared" si="5"/>
         <v>-1.6424853573854481E-2</v>
       </c>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="104"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="89">
+      <c r="Q55" s="1"/>
+      <c r="R55" s="104"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="89">
         <v>2023</v>
       </c>
-      <c r="C55" s="118">
+      <c r="C56" s="118">
         <v>15188.008050000002</v>
       </c>
-      <c r="D55" s="118">
+      <c r="D56" s="118">
         <v>11595.886200000003</v>
       </c>
-      <c r="E55" s="118">
+      <c r="E56" s="118">
         <v>11071.353000000001</v>
       </c>
-      <c r="F55" s="118">
+      <c r="F56" s="118">
         <v>13782.527</v>
       </c>
-      <c r="G55" s="118">
+      <c r="G56" s="118">
         <v>13945.765799999999</v>
       </c>
-      <c r="H55" s="118">
+      <c r="H56" s="118">
         <v>12106.234499999999</v>
       </c>
-      <c r="I55" s="118">
+      <c r="I56" s="118">
         <v>10188.842500000001</v>
       </c>
-      <c r="J55" s="118">
+      <c r="J56" s="118">
         <v>13344.796999999997</v>
       </c>
-      <c r="K55" s="118">
+      <c r="K56" s="118">
         <v>14712.011500000001</v>
       </c>
-      <c r="L55" s="118">
+      <c r="L56" s="118">
         <v>13776.57598</v>
       </c>
-      <c r="M55" s="118">
+      <c r="M56" s="118">
         <v>15479.181490000001</v>
       </c>
-      <c r="N55" s="118">
+      <c r="N56" s="118">
         <v>14347.4998</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O56" s="5">
         <f t="shared" si="6"/>
         <v>159538.68281999996</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P56" s="3">
         <f t="shared" si="5"/>
         <v>0.14893686652355087</v>
       </c>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="104"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="89">
+      <c r="Q56" s="1"/>
+      <c r="R56" s="104"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="89">
         <v>2024</v>
       </c>
-      <c r="C56" s="118">
+      <c r="C57" s="118">
         <v>15889.67476</v>
       </c>
-      <c r="D56" s="118">
+      <c r="D57" s="118">
         <v>9377.7311600000012</v>
       </c>
-      <c r="E56" s="118">
+      <c r="E57" s="118">
         <v>9550.4549200000001</v>
       </c>
-      <c r="F56" s="118">
+      <c r="F57" s="118">
         <v>10310.999800000001</v>
       </c>
-      <c r="G56" s="118">
+      <c r="G57" s="118">
         <v>14162.855880000001</v>
       </c>
-      <c r="H56" s="118">
+      <c r="H57" s="118">
         <v>10721.299680000002</v>
       </c>
-      <c r="I56" s="118">
+      <c r="I57" s="118">
         <v>12738.299890000002</v>
       </c>
-      <c r="J56" s="118">
+      <c r="J57" s="118">
         <v>15574.264789999997</v>
       </c>
-      <c r="K56" s="118">
+      <c r="K57" s="118">
         <v>14317.647859999999</v>
       </c>
-      <c r="L56" s="118">
+      <c r="L57" s="118">
         <v>15273.569879999999</v>
       </c>
-      <c r="M56" s="118">
+      <c r="M57" s="118">
         <v>15556.280969999998</v>
       </c>
-      <c r="N56" s="118">
+      <c r="N57" s="118">
         <v>15143.799799999997</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O57" s="5">
         <f t="shared" si="6"/>
         <v>158616.87939000002</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P57" s="3">
         <f t="shared" si="5"/>
         <v>-5.7779305539332748E-3</v>
       </c>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="104"/>
-    </row>
-    <row r="57" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="90">
+      <c r="Q57" s="116"/>
+      <c r="R57" s="104"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="89">
         <v>2025</v>
       </c>
-      <c r="C57" s="95">
-        <v>13921.492330000003</v>
-      </c>
-      <c r="D57" s="91">
-        <v>13126.750000000002</v>
-      </c>
-      <c r="E57" s="95">
-        <v>11116.381499999992</v>
-      </c>
-      <c r="F57" s="95">
+      <c r="C58" s="118">
+        <v>13873.092329999999</v>
+      </c>
+      <c r="D58" s="118">
+        <v>13006.75</v>
+      </c>
+      <c r="E58" s="118">
+        <v>10616.381499999992</v>
+      </c>
+      <c r="F58" s="118">
         <v>10247.333999999999</v>
       </c>
-      <c r="G57" s="91">
-        <v>11989.13493</v>
-      </c>
-      <c r="H57" s="91">
-        <v>11708.424939999999</v>
-      </c>
-      <c r="I57" s="91">
-        <v>11142.483450000002</v>
-      </c>
-      <c r="J57" s="91">
+      <c r="G58" s="118">
+        <v>11939.13493</v>
+      </c>
+      <c r="H58" s="118">
+        <v>11708.424939999995</v>
+      </c>
+      <c r="I58" s="118">
+        <v>10992.483450000002</v>
+      </c>
+      <c r="J58" s="118">
         <v>16138.349990000001</v>
       </c>
-      <c r="K57" s="91">
+      <c r="K58" s="118">
         <v>17876.615479999989</v>
       </c>
-      <c r="L57" s="95">
-        <v>17225</v>
-      </c>
-      <c r="M57" s="95">
-        <v>17550.117920000001</v>
-      </c>
-      <c r="N57" s="95">
-        <v>16406.310449999997</v>
-      </c>
-      <c r="O57" s="16">
-        <f t="shared" si="6"/>
-        <v>168448.39498999997</v>
-      </c>
-      <c r="P57" s="17">
-        <f t="shared" si="5"/>
-        <v>6.1982782903114986E-2</v>
-      </c>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="104"/>
-    </row>
-    <row r="58" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="39" t="s">
+      <c r="L58" s="118">
+        <v>17225.365980000002</v>
+      </c>
+      <c r="M58" s="118">
+        <v>17540.117920000001</v>
+      </c>
+      <c r="N58" s="118">
+        <v>16912.710449999995</v>
+      </c>
+      <c r="O58" s="5">
+        <v>168076.76096999997</v>
+      </c>
+      <c r="P58" s="3">
+        <v>5.9639816496076969E-2</v>
+      </c>
+      <c r="Q58" s="116"/>
+      <c r="R58" s="104"/>
+    </row>
+    <row r="59" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="90">
+        <v>2026</v>
+      </c>
+      <c r="C59" s="95">
+        <v>12985</v>
+      </c>
+      <c r="D59" s="91"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="104"/>
+    </row>
+    <row r="60" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="101"/>
-    </row>
-    <row r="59" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="14"/>
-      <c r="G59" s="125" t="s">
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="101"/>
+    </row>
+    <row r="61" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="14"/>
+      <c r="G61" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="127"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36" t="s">
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O61" s="10" t="s">
+      <c r="O63" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P63" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="37">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="37">
         <v>2007</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C64" s="6">
         <v>2248.1177310752905</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D64" s="2">
         <v>2441.7316666666666</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E64" s="2">
         <v>2364.8632960022082</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F64" s="2">
         <v>2533.0827488006016</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G64" s="2">
         <v>3081.7592923076922</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H64" s="2">
         <v>2719.0738382780487</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I64" s="2">
         <v>2654.7620377045646</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J64" s="2">
         <v>3308.398195071155</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K64" s="2">
         <v>3034.6409384236454</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L64" s="2">
         <v>3810.5693027512402</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M64" s="2">
         <v>3403.119859888629</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N64" s="12">
         <v>3264.4215203113649</v>
       </c>
-      <c r="O62" s="4">
-        <f t="shared" ref="O62:O80" si="7">AVERAGE(C62:N62)</f>
+      <c r="O64" s="4">
+        <f t="shared" ref="O64:O82" si="7">AVERAGE(C64:N64)</f>
         <v>2905.3783689400921</v>
       </c>
-      <c r="P62" s="4">
-        <f t="shared" ref="P62:P80" si="8">O16/O39</f>
+      <c r="P64" s="4">
+        <f t="shared" ref="P64:P82" si="8">O16/O40</f>
         <v>2921.9656414486954</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="38">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="38">
         <v>2008</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C65" s="7">
         <v>4294.2956350877184</v>
       </c>
-      <c r="D63" s="136">
+      <c r="D65" s="1">
         <v>3867.5</v>
       </c>
-      <c r="E63" s="136">
+      <c r="E65" s="1">
         <v>4301.14565991774</v>
       </c>
-      <c r="F63" s="136">
+      <c r="F65" s="1">
         <v>4246.8230229686351</v>
       </c>
-      <c r="G63" s="136">
+      <c r="G65" s="1">
         <v>4402.976295868988</v>
       </c>
-      <c r="H63" s="136">
+      <c r="H65" s="1">
         <v>4872.1905827586206</v>
       </c>
-      <c r="I63" s="136">
+      <c r="I65" s="1">
         <v>4414.2536039325842</v>
       </c>
-      <c r="J63" s="136">
+      <c r="J65" s="1">
         <v>4706.7925976470588</v>
       </c>
-      <c r="K63" s="136">
+      <c r="K65" s="1">
         <v>4026.985850070721</v>
       </c>
-      <c r="L63" s="136">
+      <c r="L65" s="1">
         <v>3287.7666073825508</v>
       </c>
-      <c r="M63" s="136">
+      <c r="M65" s="1">
         <v>3140.9928209772224</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N65" s="13">
         <v>3283.7068585131892</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O65" s="5">
         <f t="shared" si="7"/>
         <v>4070.4524612604196</v>
       </c>
-      <c r="P63" s="5">
+      <c r="P65" s="5">
         <f t="shared" si="8"/>
         <v>4078.3684896736486</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="38">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="38">
         <v>2009</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C66" s="7">
         <v>1755.1416666666667</v>
       </c>
-      <c r="D64" s="136">
+      <c r="D66" s="1">
         <v>1731.1426069937372</v>
       </c>
-      <c r="E64" s="136">
+      <c r="E66" s="1">
         <v>1992.7603567362428</v>
       </c>
-      <c r="F64" s="136">
+      <c r="F66" s="1">
         <v>2004.7506285714283</v>
       </c>
-      <c r="G64" s="136">
+      <c r="G66" s="1">
         <v>2259.3784396607957</v>
       </c>
-      <c r="H64" s="136">
+      <c r="H66" s="1">
         <v>2148.3724756503525</v>
       </c>
-      <c r="I64" s="136">
+      <c r="I66" s="1">
         <v>2163.7611027162498</v>
       </c>
-      <c r="J64" s="136">
+      <c r="J66" s="1">
         <v>2350.0196077794549</v>
       </c>
-      <c r="K64" s="136">
+      <c r="K66" s="1">
         <v>2244.1857726696467</v>
       </c>
-      <c r="L64" s="136">
+      <c r="L66" s="1">
         <v>2253.7211875232874</v>
       </c>
-      <c r="M64" s="136">
+      <c r="M66" s="1">
         <v>2371.3072533392137</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N66" s="13">
         <v>2825.1513113600481</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O66" s="5">
         <f t="shared" si="7"/>
         <v>2174.9743674722604</v>
       </c>
-      <c r="P64" s="5">
+      <c r="P66" s="5">
         <f t="shared" si="8"/>
         <v>2257.5454063687112</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="38">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="38">
         <v>2010</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C67" s="7">
         <v>2848.2486316989734</v>
       </c>
-      <c r="D65" s="136">
+      <c r="D67" s="1">
         <v>2808.184032767072</v>
       </c>
-      <c r="E65" s="136">
+      <c r="E67" s="1">
         <v>3006.5809444639185</v>
       </c>
-      <c r="F65" s="136">
+      <c r="F67" s="1">
         <v>3319.7685093251048</v>
       </c>
-      <c r="G65" s="136">
+      <c r="G67" s="1">
         <v>3088.0665035014499</v>
       </c>
-      <c r="H65" s="136">
+      <c r="H67" s="1">
         <v>3428.4148412586428</v>
       </c>
-      <c r="I65" s="136">
+      <c r="I67" s="1">
         <v>3354.4835961646922</v>
       </c>
-      <c r="J65" s="136">
+      <c r="J67" s="1">
         <v>3643.4938768244924</v>
       </c>
-      <c r="K65" s="136">
+      <c r="K67" s="1">
         <v>3629.3696030977735</v>
       </c>
-      <c r="L65" s="136">
+      <c r="L67" s="1">
         <v>3446.1154728180222</v>
       </c>
-      <c r="M65" s="136">
+      <c r="M67" s="1">
         <v>3674.5955603186817</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N67" s="13">
         <v>3668.1047454249906</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O67" s="5">
         <f t="shared" si="7"/>
         <v>3326.2855264719851</v>
       </c>
-      <c r="P65" s="5">
+      <c r="P67" s="5">
         <f t="shared" si="8"/>
         <v>3352.8629248323869</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="38">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B68" s="38">
         <v>2011</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C68" s="7">
         <v>3610.3065170340683</v>
       </c>
-      <c r="D66" s="136">
+      <c r="D68" s="1">
         <v>3666.6065447040055</v>
       </c>
-      <c r="E66" s="136">
+      <c r="E68" s="1">
         <v>4114.2997043284386</v>
       </c>
-      <c r="F66" s="136">
+      <c r="F68" s="1">
         <v>4558.4771331250704</v>
       </c>
-      <c r="G66" s="136">
+      <c r="G68" s="1">
         <v>4864.6113890248789</v>
       </c>
-      <c r="H66" s="136">
+      <c r="H68" s="1">
         <v>4892.6184880532701</v>
       </c>
-      <c r="I66" s="136">
+      <c r="I68" s="1">
         <v>4748.0894117647058</v>
       </c>
-      <c r="J66" s="136">
+      <c r="J68" s="1">
         <v>4050.5876470588237</v>
       </c>
-      <c r="K66" s="136">
+      <c r="K68" s="1">
         <v>4467.5650529661025</v>
       </c>
-      <c r="L66" s="136">
+      <c r="L68" s="1">
         <v>4091.5351566726031</v>
       </c>
-      <c r="M66" s="136">
+      <c r="M68" s="1">
         <v>4145.6355374357663</v>
       </c>
-      <c r="N66" s="136">
+      <c r="N68" s="1">
         <v>4170.5313094897156</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O68" s="5">
         <f t="shared" si="7"/>
         <v>4281.7386576381205</v>
       </c>
-      <c r="P66" s="5">
+      <c r="P68" s="5">
         <f t="shared" si="8"/>
         <v>4297.3832103700661</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="38">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="38">
         <v>2012</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C69" s="7">
         <v>3876.175007932311</v>
       </c>
-      <c r="D67" s="136">
+      <c r="D69" s="1">
         <v>3889.0394044198315</v>
       </c>
-      <c r="E67" s="136">
+      <c r="E69" s="1">
         <v>4031.6957640325663</v>
       </c>
-      <c r="F67" s="136">
+      <c r="F69" s="1">
         <v>4111.6268292489176</v>
       </c>
-      <c r="G67" s="136">
+      <c r="G69" s="1">
         <v>3845.3972718539867</v>
       </c>
-      <c r="H67" s="136">
+      <c r="H69" s="1">
         <v>3986.3774692966131</v>
       </c>
-      <c r="I67" s="136">
+      <c r="I69" s="1">
         <v>3577.4450631072355</v>
       </c>
-      <c r="J67" s="136">
+      <c r="J69" s="1">
         <v>3666.4742045674261</v>
       </c>
-      <c r="K67" s="136">
+      <c r="K69" s="1">
         <v>3517.606945501811</v>
       </c>
-      <c r="L67" s="136">
+      <c r="L69" s="1">
         <v>3329.7533369862999</v>
       </c>
-      <c r="M67" s="136">
+      <c r="M69" s="1">
         <v>3413.8774661296229</v>
       </c>
-      <c r="N67" s="136">
+      <c r="N69" s="1">
         <v>3540.7968302583017</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O69" s="5">
         <f t="shared" si="7"/>
         <v>3732.1887994445774</v>
       </c>
-      <c r="P67" s="5">
+      <c r="P69" s="5">
         <f t="shared" si="8"/>
         <v>3725.1978364854431</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="38">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B70" s="38">
         <v>2013</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C70" s="7">
         <v>3710.7666859654769</v>
       </c>
-      <c r="D68" s="136">
+      <c r="D70" s="1">
         <v>3941.0290756302516</v>
       </c>
-      <c r="E68" s="136">
+      <c r="E70" s="1">
         <v>3898.7095122142787</v>
       </c>
-      <c r="F68" s="136">
+      <c r="F70" s="1">
         <v>4257.8840786802039</v>
       </c>
-      <c r="G68" s="136">
+      <c r="G70" s="1">
         <v>4521.6339884393055</v>
       </c>
-      <c r="H68" s="136">
+      <c r="H70" s="1">
         <v>3839.8553324186109</v>
       </c>
-      <c r="I68" s="136">
+      <c r="I70" s="1">
         <v>4486.7515197896446</v>
       </c>
-      <c r="J68" s="136">
+      <c r="J70" s="1">
         <v>4818.062645384497</v>
       </c>
-      <c r="K68" s="136">
+      <c r="K70" s="1">
         <v>4954.7733187969925</v>
       </c>
-      <c r="L68" s="136">
+      <c r="L70" s="1">
         <v>4985.1666354593326</v>
       </c>
-      <c r="M68" s="136">
+      <c r="M70" s="1">
         <v>4987.8753603714695</v>
       </c>
-      <c r="N68" s="136">
+      <c r="N70" s="1">
         <v>4982.208282686307</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O70" s="5">
         <f t="shared" si="7"/>
         <v>4448.7263696530308</v>
       </c>
-      <c r="P68" s="5">
+      <c r="P70" s="5">
         <f t="shared" si="8"/>
         <v>4539.2744852213418</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="38">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="38">
         <v>2014</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C71" s="7">
         <v>4994.7037376705139</v>
       </c>
-      <c r="D69" s="136">
+      <c r="D71" s="1">
         <v>5138.4723457977652</v>
       </c>
-      <c r="E69" s="136">
+      <c r="E71" s="1">
         <v>4944.5931731393684</v>
       </c>
-      <c r="F69" s="136">
+      <c r="F71" s="1">
         <v>5149.338366210819</v>
       </c>
-      <c r="G69" s="136">
+      <c r="G71" s="1">
         <v>5308.7477573221759</v>
       </c>
-      <c r="H69" s="136">
+      <c r="H71" s="1">
         <v>4918.4690466754737</v>
       </c>
-      <c r="I69" s="136">
+      <c r="I71" s="1">
         <v>4515.179043460178</v>
       </c>
-      <c r="J69" s="136">
+      <c r="J71" s="1">
         <v>4728.9464238845139</v>
       </c>
-      <c r="K69" s="136">
+      <c r="K71" s="1">
         <v>4863.2283806228379</v>
       </c>
-      <c r="L69" s="136">
+      <c r="L71" s="1">
         <v>3935.0024070241034</v>
       </c>
-      <c r="M69" s="136">
+      <c r="M71" s="1">
         <v>4479.6896446008859</v>
       </c>
-      <c r="N69" s="136">
+      <c r="N71" s="1">
         <v>3369.4697481219587</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O71" s="5">
         <f t="shared" si="7"/>
         <v>4695.4866728775487</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P71" s="5">
         <f t="shared" si="8"/>
         <v>4867.3576837397422</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="38">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="38">
         <v>2015</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C72" s="7">
         <v>3652.3892043010756</v>
       </c>
-      <c r="D70" s="136">
+      <c r="D72" s="1">
         <v>3195.2023658718326</v>
       </c>
-      <c r="E70" s="136">
+      <c r="E72" s="1">
         <v>2588.7407401000787</v>
       </c>
-      <c r="F70" s="136">
+      <c r="F72" s="1">
         <v>2755.7230629957221</v>
       </c>
-      <c r="G70" s="136">
+      <c r="G72" s="1">
         <v>2845.6393508939673</v>
       </c>
-      <c r="H70" s="136">
+      <c r="H72" s="1">
         <v>2910.9601352728619</v>
       </c>
-      <c r="I70" s="136">
+      <c r="I72" s="1">
         <v>3119.823356386969</v>
       </c>
-      <c r="J70" s="136">
+      <c r="J72" s="1">
         <v>2585.8885905369066</v>
       </c>
-      <c r="K70" s="136">
+      <c r="K72" s="1">
         <v>3086.406469684362</v>
       </c>
-      <c r="L70" s="136">
+      <c r="L72" s="1">
         <v>3534.5690087105218</v>
       </c>
-      <c r="M70" s="136">
+      <c r="M72" s="1">
         <v>3351.1862508104723</v>
       </c>
-      <c r="N70" s="136">
+      <c r="N72" s="1">
         <v>2342.2171048985838</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O72" s="5">
         <f t="shared" si="7"/>
         <v>2997.395470038613</v>
       </c>
-      <c r="P70" s="5">
+      <c r="P72" s="5">
         <f t="shared" si="8"/>
         <v>2968.9448377870272</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="38">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="38">
         <v>2016</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C73" s="7">
         <v>2350.68873714852</v>
       </c>
-      <c r="D71" s="136">
+      <c r="D73" s="1">
         <v>2413.944736983216</v>
       </c>
-      <c r="E71" s="136">
+      <c r="E73" s="1">
         <v>2362.214076719737</v>
       </c>
-      <c r="F71" s="136">
+      <c r="F73" s="1">
         <v>2343.9729506931963</v>
       </c>
-      <c r="G71" s="136">
+      <c r="G73" s="1">
         <v>2397.6513760463358</v>
       </c>
-      <c r="H71" s="136">
+      <c r="H73" s="1">
         <v>2371.3892416022159</v>
       </c>
-      <c r="I71" s="136">
+      <c r="I73" s="1">
         <v>2550.4012688386792</v>
       </c>
-      <c r="J71" s="136">
+      <c r="J73" s="1">
         <v>2560.2648565279751</v>
       </c>
-      <c r="K71" s="136">
+      <c r="K73" s="1">
         <v>2648.7716069271059</v>
       </c>
-      <c r="L71" s="136">
+      <c r="L73" s="1">
         <v>2747.1686705574853</v>
       </c>
-      <c r="M71" s="136">
+      <c r="M73" s="1">
         <v>2868.036165110113</v>
       </c>
-      <c r="N71" s="136">
+      <c r="N73" s="1">
         <v>2887.4854044803942</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O73" s="5">
         <f t="shared" si="7"/>
         <v>2541.8324243029142</v>
       </c>
-      <c r="P71" s="5">
+      <c r="P73" s="5">
         <f t="shared" si="8"/>
         <v>2509.6306131686624</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="38">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="38">
         <v>2017</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C74" s="7">
         <v>3205.3852668138838</v>
       </c>
-      <c r="D72" s="136">
+      <c r="D74" s="1">
         <v>3231.6142840338425</v>
       </c>
-      <c r="E72" s="136">
+      <c r="E74" s="1">
         <v>3388.5751115233643</v>
       </c>
-      <c r="F72" s="136">
+      <c r="F74" s="1">
         <v>3425.8773718767907</v>
       </c>
-      <c r="G72" s="136">
+      <c r="G74" s="1">
         <v>3446.093325803834</v>
       </c>
-      <c r="H72" s="136">
+      <c r="H74" s="1">
         <v>3353.2906897074072</v>
       </c>
-      <c r="I72" s="136">
+      <c r="I74" s="1">
         <v>3198.922856391373</v>
       </c>
-      <c r="J72" s="136">
+      <c r="J74" s="1">
         <v>3083.7981202077681</v>
       </c>
-      <c r="K72" s="136">
+      <c r="K74" s="1">
         <v>3121.7011899434056</v>
       </c>
-      <c r="L72" s="136">
+      <c r="L74" s="1">
         <v>3047.4906813206317</v>
       </c>
-      <c r="M72" s="136">
+      <c r="M74" s="1">
         <v>3041.147159024652</v>
       </c>
-      <c r="N72" s="136">
+      <c r="N74" s="1">
         <v>3058.7368843984273</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O74" s="5">
         <f t="shared" si="7"/>
         <v>3216.8860784204485</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P74" s="5">
         <f t="shared" si="8"/>
         <v>3190.3522505405326</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="38">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="38">
         <v>2018</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C75" s="7">
         <v>2978.5340761601569</v>
       </c>
-      <c r="D73" s="136">
+      <c r="D75" s="1">
         <v>3048.7383586561114</v>
       </c>
-      <c r="E73" s="136">
+      <c r="E75" s="1">
         <v>3058.7916184637979</v>
       </c>
-      <c r="F73" s="136">
+      <c r="F75" s="1">
         <v>3092.7994529294633</v>
       </c>
-      <c r="G73" s="136">
+      <c r="G75" s="1">
         <v>3021.8617245767714</v>
       </c>
-      <c r="H73" s="136">
+      <c r="H75" s="1">
         <v>3196.7092683243936</v>
       </c>
-      <c r="I73" s="136">
+      <c r="I75" s="1">
         <v>3158.4457026060804</v>
       </c>
-      <c r="J73" s="136">
+      <c r="J75" s="1">
         <v>3148.9190943533472</v>
       </c>
-      <c r="K73" s="136">
+      <c r="K75" s="1">
         <v>3003.8719871685589</v>
       </c>
-      <c r="L73" s="136">
+      <c r="L75" s="1">
         <v>2777.9338730699692</v>
       </c>
-      <c r="M73" s="136">
+      <c r="M75" s="1">
         <v>2737.7691113495766</v>
       </c>
-      <c r="N73" s="136">
+      <c r="N75" s="1">
         <v>2758.5710089894906</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O75" s="5">
         <f t="shared" si="7"/>
         <v>2998.578773053976</v>
       </c>
-      <c r="P73" s="5">
+      <c r="P75" s="5">
         <f t="shared" si="8"/>
         <v>2971.8186278521894</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="38" t="s">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C76" s="7">
         <v>2901.971109976525</v>
       </c>
-      <c r="D74" s="136">
+      <c r="D76" s="1">
         <v>2796.7060217875983</v>
       </c>
-      <c r="E74" s="136">
+      <c r="E76" s="1">
         <v>2808.2142996360244</v>
       </c>
-      <c r="F74" s="136">
+      <c r="F76" s="1">
         <v>2962.1682586395714</v>
       </c>
-      <c r="G74" s="136">
+      <c r="G76" s="1">
         <v>2955.9946735308895</v>
       </c>
-      <c r="H74" s="136">
+      <c r="H76" s="1">
         <v>3159.5982197228732</v>
       </c>
-      <c r="I74" s="136">
+      <c r="I76" s="1">
         <v>3334.8294700454367</v>
       </c>
-      <c r="J74" s="136">
+      <c r="J76" s="1">
         <v>3284.4793980350105</v>
       </c>
-      <c r="K74" s="136">
+      <c r="K76" s="1">
         <v>3090.2215203596384</v>
       </c>
-      <c r="L74" s="136">
+      <c r="L76" s="1">
         <v>3010.2692255488937</v>
       </c>
-      <c r="M74" s="136">
+      <c r="M76" s="1">
         <v>3123.478175498034</v>
       </c>
-      <c r="N74" s="136">
+      <c r="N76" s="1">
         <v>3150.3552073066403</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O76" s="5">
         <f t="shared" si="7"/>
         <v>3048.1904650072611</v>
       </c>
-      <c r="P74" s="5">
+      <c r="P76" s="5">
         <f t="shared" si="8"/>
         <v>3067.9733448340685</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="38" t="s">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C77" s="7">
         <v>3178.6750228301157</v>
       </c>
-      <c r="D75" s="136">
+      <c r="D77" s="1">
         <v>3218.5185167011982</v>
       </c>
-      <c r="E75" s="136">
+      <c r="E77" s="1">
         <v>3320.3277059473121</v>
       </c>
-      <c r="F75" s="136">
+      <c r="F77" s="1">
         <v>3220.3387478150767</v>
       </c>
-      <c r="G75" s="136">
+      <c r="G77" s="1">
         <v>3020.667600066407</v>
       </c>
-      <c r="H75" s="136">
+      <c r="H77" s="1">
         <v>2969.0104459359741</v>
       </c>
-      <c r="I75" s="136">
+      <c r="I77" s="1">
         <v>2838.1581585096201</v>
       </c>
-      <c r="J75" s="136">
+      <c r="J77" s="1">
         <v>3016.9040547195418</v>
       </c>
-      <c r="K75" s="136">
+      <c r="K77" s="1">
         <v>2999.7570032925164</v>
       </c>
-      <c r="L75" s="136">
+      <c r="L77" s="1">
         <v>3018.9904790734531</v>
       </c>
-      <c r="M75" s="136">
+      <c r="M77" s="1">
         <v>3066.7005256919329</v>
       </c>
-      <c r="N75" s="136">
+      <c r="N77" s="1">
         <v>3086.3316413035782</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O77" s="5">
         <f t="shared" si="7"/>
         <v>3079.5316584905609</v>
       </c>
-      <c r="P75" s="5">
+      <c r="P77" s="5">
         <f t="shared" si="8"/>
         <v>3055.2952327107191</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="38" t="s">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C78" s="7">
         <v>3162.1048531962037</v>
       </c>
-      <c r="D76" s="136">
+      <c r="D78" s="1">
         <v>3092.4544987471068</v>
       </c>
-      <c r="E76" s="136">
+      <c r="E78" s="1">
         <v>3144.0263696826737</v>
       </c>
-      <c r="F76" s="136">
+      <c r="F78" s="1">
         <v>3308.6941808332035</v>
       </c>
-      <c r="G76" s="136">
+      <c r="G78" s="1">
         <v>3438.5313344145252</v>
       </c>
-      <c r="H76" s="136">
+      <c r="H78" s="1">
         <v>3750.1314833507413</v>
       </c>
-      <c r="I76" s="136">
+      <c r="I78" s="1">
         <v>3796.9329119974336</v>
       </c>
-      <c r="J76" s="136">
+      <c r="J78" s="1">
         <v>3681.63630424652</v>
       </c>
-      <c r="K76" s="136">
+      <c r="K78" s="1">
         <v>3700.3435705750276</v>
       </c>
-      <c r="L76" s="136">
+      <c r="L78" s="1">
         <v>3434.579941952426</v>
       </c>
-      <c r="M76" s="136">
+      <c r="M78" s="1">
         <v>3471.0851174254308</v>
       </c>
-      <c r="N76" s="136">
+      <c r="N78" s="1">
         <v>3531.8610450018446</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O78" s="5">
         <f t="shared" si="7"/>
         <v>3459.3651342852613</v>
       </c>
-      <c r="P76" s="5">
+      <c r="P78" s="5">
         <f t="shared" si="8"/>
         <v>3479.342470555343</v>
       </c>
-      <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" s="89">
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="89">
         <v>2022</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C79" s="7">
         <v>3609.9384786131559</v>
       </c>
-      <c r="D77" s="136">
+      <c r="D79" s="1">
         <v>3786.1169352254137</v>
       </c>
-      <c r="E77" s="136">
+      <c r="E79" s="1">
         <v>3884.861920039873</v>
       </c>
-      <c r="F77" s="136">
+      <c r="F79" s="1">
         <v>4021.443559971292</v>
       </c>
-      <c r="G77" s="136">
+      <c r="G79" s="1">
         <v>4212.3005677246711</v>
       </c>
-      <c r="H77" s="136">
+      <c r="H79" s="1">
         <v>4419.2678409403625</v>
       </c>
-      <c r="I77" s="136">
+      <c r="I79" s="1">
         <v>4190.7914215703386</v>
       </c>
-      <c r="J77" s="136">
+      <c r="J79" s="1">
         <v>4131.7823399643858</v>
       </c>
-      <c r="K77" s="136">
+      <c r="K79" s="1">
         <v>4180.0631231831339</v>
       </c>
-      <c r="L77" s="136">
+      <c r="L79" s="1">
         <v>4004.2926351517822</v>
       </c>
-      <c r="M77" s="136">
+      <c r="M79" s="1">
         <v>3828.2308448979575</v>
       </c>
-      <c r="N77" s="136">
+      <c r="N79" s="1">
         <v>3712.5510108386411</v>
       </c>
-      <c r="O77" s="5">
+      <c r="O79" s="5">
         <f t="shared" si="7"/>
         <v>3998.4700565100843</v>
       </c>
-      <c r="P77" s="5">
+      <c r="P79" s="5">
         <f t="shared" si="8"/>
         <v>3993.0058664974622</v>
       </c>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="104"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="89">
+      <c r="Q79" s="1"/>
+      <c r="R79" s="104"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="89">
         <v>2023</v>
       </c>
-      <c r="C78" s="136">
+      <c r="C80" s="1">
         <v>3735.1445662421825</v>
       </c>
-      <c r="D78" s="136">
+      <c r="D80" s="1">
         <v>3717.9363885099142</v>
       </c>
-      <c r="E78" s="136">
+      <c r="E80" s="1">
         <v>3699.1062772544642</v>
       </c>
-      <c r="F78" s="136">
+      <c r="F80" s="1">
         <v>3803.0509165699427</v>
       </c>
-      <c r="G78" s="136">
+      <c r="G80" s="1">
         <v>3815.1356499906215</v>
       </c>
-      <c r="H78" s="136">
+      <c r="H80" s="1">
         <v>3896.2690529412766</v>
       </c>
-      <c r="I78" s="136">
+      <c r="I80" s="1">
         <v>3739.2996427219259</v>
       </c>
-      <c r="J78" s="136">
+      <c r="J80" s="1">
         <v>3575.8338084873089</v>
       </c>
-      <c r="K78" s="136">
+      <c r="K80" s="1">
         <v>3248.1952077049405</v>
       </c>
-      <c r="L78" s="136">
+      <c r="L80" s="1">
         <v>3309.8190440205412</v>
       </c>
-      <c r="M78" s="136">
+      <c r="M80" s="1">
         <v>3143.6535886239581</v>
       </c>
-      <c r="N78" s="136">
+      <c r="N80" s="1">
         <v>3291.8829467416972</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O80" s="5">
         <f t="shared" si="7"/>
         <v>3581.2772574840642</v>
       </c>
-      <c r="P78" s="5">
+      <c r="P80" s="5">
         <f t="shared" si="8"/>
         <v>3564.5331020541021</v>
       </c>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="104"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="89">
+      <c r="Q80" s="1"/>
+      <c r="R80" s="104"/>
+    </row>
+    <row r="81" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B81" s="89">
         <v>2024</v>
       </c>
-      <c r="C79" s="136">
+      <c r="C81" s="1">
         <v>3333.3110954122526</v>
       </c>
-      <c r="D79" s="136">
+      <c r="D81" s="1">
         <v>3332.1734934444403</v>
       </c>
-      <c r="E79" s="136">
+      <c r="E81" s="1">
         <v>3445.8846270330337</v>
       </c>
-      <c r="F79" s="136">
+      <c r="F81" s="1">
         <v>3515.6069695588612</v>
       </c>
-      <c r="G79" s="136">
+      <c r="G81" s="1">
         <v>3600.7443542523711</v>
       </c>
-      <c r="H79" s="136">
+      <c r="H81" s="1">
         <v>3548.9453112647252</v>
       </c>
-      <c r="I79" s="136">
+      <c r="I81" s="1">
         <v>3557.8909039171635</v>
       </c>
-      <c r="J79" s="136">
+      <c r="J81" s="1">
         <v>3585.1846846633721</v>
       </c>
-      <c r="K79" s="136">
+      <c r="K81" s="1">
         <v>3650.3970122086803</v>
       </c>
-      <c r="L79" s="136">
+      <c r="L81" s="1">
         <v>3636.6932247276291</v>
       </c>
-      <c r="M79" s="136">
+      <c r="M81" s="1">
         <v>3656.3997802361623</v>
       </c>
-      <c r="N79" s="136">
+      <c r="N81" s="1">
         <v>3663.5269722728372</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O81" s="5">
         <f t="shared" si="7"/>
         <v>3543.8965357492939</v>
       </c>
-      <c r="P79" s="5">
+      <c r="P81" s="5">
         <f t="shared" si="8"/>
         <v>3554.1422956246952</v>
       </c>
-      <c r="Q79" s="116"/>
-      <c r="R79" s="104"/>
-    </row>
-    <row r="80" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="90">
+      <c r="Q81" s="116"/>
+      <c r="R81" s="104"/>
+    </row>
+    <row r="82" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B82" s="89">
         <v>2025</v>
       </c>
-      <c r="C80" s="18">
-        <v>3712.8227085694912</v>
-      </c>
-      <c r="D80" s="18">
-        <v>3949.2039042413394</v>
-      </c>
-      <c r="E80" s="18">
-        <f>+E34/E57</f>
-        <v>4025.8627746807724</v>
-      </c>
-      <c r="F80" s="18">
-        <v>3968.6370591609489</v>
-      </c>
-      <c r="G80" s="18">
-        <v>4126.3840192680182</v>
-      </c>
-      <c r="H80" s="18">
-        <v>4136.7522547400822</v>
-      </c>
-      <c r="I80" s="18">
-        <v>4163.0110233639152</v>
-      </c>
-      <c r="J80" s="18">
-        <v>4185.2260250801537</v>
-      </c>
-      <c r="K80" s="18">
-        <v>3980.8945585711085</v>
-      </c>
-      <c r="L80" s="18">
-        <v>3924.8301886792451</v>
-      </c>
-      <c r="M80" s="18">
-        <v>3895.2692814727284</v>
-      </c>
-      <c r="N80" s="18">
-        <v>3854.4971206490882</v>
-      </c>
-      <c r="O80" s="16">
+      <c r="C82" s="1">
+        <v>3626.1179822872546</v>
+      </c>
+      <c r="D82" s="1">
+        <f>+D34/D58</f>
+        <v>3945.3755204028698</v>
+      </c>
+      <c r="E82" s="1">
+        <f>+E34/E58</f>
+        <v>4029.0829469532573</v>
+      </c>
+      <c r="F82" s="1">
+        <f>+F34/F58</f>
+        <v>3970.7151762595017</v>
+      </c>
+      <c r="G82" s="1">
+        <f>+G34/G58</f>
+        <v>4068.1488118503057</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" ref="H82:N82" si="9">+H34/H58</f>
+        <v>4111.3399305782295</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="9"/>
+        <v>4157.1574274237355</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="9"/>
+        <v>4180.0651709623771</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="9"/>
+        <v>3965.9891163022339</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="9"/>
+        <v>3923.7087983195343</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" si="9"/>
+        <v>3889.9899488247029</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" si="9"/>
+        <v>3845.947481469479</v>
+      </c>
+      <c r="O82" s="5">
         <f t="shared" si="7"/>
-        <v>3993.6159098730745</v>
-      </c>
-      <c r="P80" s="16">
+        <v>3976.1365259694571</v>
+      </c>
+      <c r="P82" s="5">
         <f t="shared" si="8"/>
-        <v>3984.338384167113</v>
-      </c>
-      <c r="Q80" s="116"/>
-      <c r="R80" s="104"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="39" t="s">
+        <v>3978.4184285259557</v>
+      </c>
+      <c r="Q82" s="116"/>
+      <c r="R82" s="104"/>
+      <c r="XFD82" s="1"/>
+    </row>
+    <row r="83" spans="1:18 16384:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="90">
+        <v>2025</v>
+      </c>
+      <c r="C83" s="18">
+        <f>+C35/C59</f>
+        <v>3626.1179822872546</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="116"/>
+      <c r="R83" s="104"/>
+    </row>
+    <row r="84" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B84" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="Q81" s="106"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="N82" s="106"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F83" s="102"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F85" s="103"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="108"/>
-      <c r="C229" s="114"/>
-      <c r="D229" s="109"/>
-      <c r="E229" s="110"/>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="111"/>
-      <c r="C230" s="115"/>
-      <c r="D230" s="112"/>
-      <c r="E230" s="113"/>
+      <c r="E84" s="1"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="Q84" s="106"/>
+    </row>
+    <row r="85" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="N85" s="106"/>
+    </row>
+    <row r="86" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="F86" s="102"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+    </row>
+    <row r="87" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="F88" s="103"/>
+    </row>
+    <row r="96" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="108"/>
+      <c r="C232" s="114"/>
+      <c r="D232" s="109"/>
+      <c r="E232" s="110"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="111"/>
+      <c r="C233" s="115"/>
+      <c r="D233" s="112"/>
+      <c r="E233" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G61:J61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5695,8 +5769,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O14 O25:P25 O26 O39:O50 O27 O62:O67 O16:O24" formulaRange="1"/>
-    <ignoredError sqref="B28:B30 B51:B53 B74:B76" numberStoredAsText="1"/>
+    <ignoredError sqref="O14 O25:P25 O26 O40:O51 O27 O64:O69 O16:O24" formulaRange="1"/>
+    <ignoredError sqref="B28:B30 B52:B54 B76:B78" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5706,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M231"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,34 +5865,34 @@
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:13" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="128" t="s">
+      <c r="D13" s="128"/>
+      <c r="E13" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="129"/>
-      <c r="G13" s="128" t="s">
+      <c r="F13" s="128"/>
+      <c r="G13" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="128" t="s">
+      <c r="H13" s="128"/>
+      <c r="I13" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="129"/>
-      <c r="K13" s="128" t="s">
+      <c r="J13" s="128"/>
+      <c r="K13" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="129"/>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
@@ -6555,39 +6629,39 @@
         <v>2025</v>
       </c>
       <c r="C33" s="53">
-        <v>38164.623829999997</v>
+        <v>37496.223830000024</v>
       </c>
       <c r="D33" s="54">
         <f>+C33/C32-1</f>
-        <v>9.6122016380601805E-2</v>
+        <v>7.6924972568189087E-2</v>
       </c>
       <c r="E33" s="53">
-        <v>33944.89387</v>
+        <v>33894.893869999993</v>
       </c>
       <c r="F33" s="54">
         <v>-3.5523681518421446E-2</v>
       </c>
       <c r="G33" s="18">
-        <v>45157.448919999995</v>
+        <v>45007.448920000032</v>
       </c>
       <c r="H33" s="54">
         <f>+G33/G32-1</f>
-        <v>5.9282753461026738E-2</v>
+        <v>5.5764122164989605E-2</v>
       </c>
       <c r="I33" s="53">
-        <v>51182</v>
+        <v>51678.194350000071</v>
       </c>
       <c r="J33" s="54">
         <f t="shared" si="4"/>
-        <v>0.11328987966719195</v>
+        <v>0.12408289573149411</v>
       </c>
       <c r="K33" s="18">
         <f>+I33+G33+E33+C33</f>
-        <v>168448.96661999999</v>
+        <v>168076.76097000012</v>
       </c>
       <c r="L33" s="54">
         <f t="shared" si="5"/>
-        <v>6.1986386744032007E-2</v>
+        <v>5.963981649607808E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -6602,26 +6676,26 @@
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="128" t="s">
+      <c r="D36" s="128"/>
+      <c r="E36" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="129"/>
-      <c r="G36" s="128" t="s">
+      <c r="F36" s="128"/>
+      <c r="G36" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="129"/>
-      <c r="I36" s="128" t="s">
+      <c r="H36" s="128"/>
+      <c r="I36" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="J36" s="129"/>
-      <c r="K36" s="128" t="s">
+      <c r="J36" s="128"/>
+      <c r="K36" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="129"/>
+      <c r="L36" s="128"/>
     </row>
     <row r="37" spans="2:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="44" t="s">
@@ -7362,37 +7436,37 @@
         <v>2025</v>
       </c>
       <c r="C56" s="53">
-        <v>3885.3067788772696</v>
+        <v>3903.4342963063086</v>
       </c>
       <c r="D56" s="54">
         <v>0.15500639618082168</v>
       </c>
       <c r="E56" s="53">
-        <v>4082.3393954538237</v>
+        <v>4053.6116654316579</v>
       </c>
       <c r="F56" s="54">
         <v>0.14671723434653061</v>
       </c>
       <c r="G56" s="53">
-        <v>4098.8552171737701</v>
+        <v>4089.4408764903569</v>
       </c>
       <c r="H56" s="54">
         <f>+G56/G55-1</f>
-        <v>0.13890906832285488</v>
+        <v>0.13629319696157927</v>
       </c>
       <c r="I56" s="53">
-        <v>3892.1719437893835</v>
+        <v>3886.8153414884118</v>
       </c>
       <c r="J56" s="54">
         <f t="shared" si="9"/>
-        <v>6.5705991225411431E-2</v>
-      </c>
-      <c r="K56" s="121">
-        <v>3984.3457249917637</v>
+        <v>6.4239313173362289E-2</v>
+      </c>
+      <c r="K56" s="53">
+        <v>3978.4184285259516</v>
       </c>
       <c r="L56" s="54">
         <f t="shared" si="10"/>
-        <v>0.12104282653417386</v>
+        <v>0.11937511152087543</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -7423,43 +7497,43 @@
       <c r="B63" s="57"/>
     </row>
     <row r="64" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="122">
+      <c r="C64" s="121">
         <v>2025</v>
       </c>
-      <c r="D64" s="123"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="123"/>
-      <c r="H64" s="123"/>
-      <c r="I64" s="123"/>
-      <c r="J64" s="123"/>
-      <c r="K64" s="123"/>
-      <c r="L64" s="124"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="123"/>
     </row>
     <row r="65" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="128" t="s">
+      <c r="C65" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="129"/>
-      <c r="E65" s="128" t="s">
+      <c r="D65" s="128"/>
+      <c r="E65" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="130"/>
-      <c r="G65" s="128" t="s">
+      <c r="F65" s="127"/>
+      <c r="G65" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="129"/>
-      <c r="I65" s="130" t="s">
+      <c r="H65" s="128"/>
+      <c r="I65" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="129"/>
-      <c r="K65" s="130" t="s">
+      <c r="J65" s="128"/>
+      <c r="K65" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="129"/>
+      <c r="L65" s="128"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="59">
@@ -7640,43 +7714,43 @@
       <c r="B71" s="57"/>
     </row>
     <row r="72" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="122">
+      <c r="C72" s="121">
         <v>2024</v>
       </c>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="123"/>
-      <c r="I72" s="123"/>
-      <c r="J72" s="123"/>
-      <c r="K72" s="123"/>
-      <c r="L72" s="124"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="122"/>
+      <c r="H72" s="122"/>
+      <c r="I72" s="122"/>
+      <c r="J72" s="122"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="123"/>
     </row>
     <row r="73" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="128" t="s">
+      <c r="C73" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="129"/>
-      <c r="E73" s="128" t="s">
+      <c r="D73" s="128"/>
+      <c r="E73" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="130"/>
-      <c r="G73" s="128" t="s">
+      <c r="F73" s="127"/>
+      <c r="G73" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H73" s="129"/>
-      <c r="I73" s="130" t="s">
+      <c r="H73" s="128"/>
+      <c r="I73" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J73" s="129"/>
-      <c r="K73" s="130" t="s">
+      <c r="J73" s="128"/>
+      <c r="K73" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="129"/>
+      <c r="L73" s="128"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="59">
@@ -7857,43 +7931,43 @@
       <c r="B79" s="57"/>
     </row>
     <row r="80" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="122">
+      <c r="C80" s="121">
         <v>2023</v>
       </c>
-      <c r="D80" s="123"/>
-      <c r="E80" s="123"/>
-      <c r="F80" s="123"/>
-      <c r="G80" s="123"/>
-      <c r="H80" s="123"/>
-      <c r="I80" s="123"/>
-      <c r="J80" s="123"/>
-      <c r="K80" s="123"/>
-      <c r="L80" s="124"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="122"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="122"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="123"/>
     </row>
     <row r="81" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="128" t="s">
+      <c r="C81" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="129"/>
-      <c r="E81" s="128" t="s">
+      <c r="D81" s="128"/>
+      <c r="E81" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="130"/>
-      <c r="G81" s="128" t="s">
+      <c r="F81" s="127"/>
+      <c r="G81" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H81" s="129"/>
-      <c r="I81" s="130" t="s">
+      <c r="H81" s="128"/>
+      <c r="I81" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J81" s="129"/>
-      <c r="K81" s="130" t="s">
+      <c r="J81" s="128"/>
+      <c r="K81" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L81" s="129"/>
+      <c r="L81" s="128"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="59">
@@ -8074,43 +8148,43 @@
       <c r="B87" s="57"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="122">
+      <c r="C88" s="121">
         <v>2022</v>
       </c>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="123"/>
-      <c r="H88" s="123"/>
-      <c r="I88" s="123"/>
-      <c r="J88" s="123"/>
-      <c r="K88" s="123"/>
-      <c r="L88" s="124"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
+      <c r="G88" s="122"/>
+      <c r="H88" s="122"/>
+      <c r="I88" s="122"/>
+      <c r="J88" s="122"/>
+      <c r="K88" s="122"/>
+      <c r="L88" s="123"/>
     </row>
     <row r="89" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="128" t="s">
+      <c r="C89" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="129"/>
-      <c r="E89" s="128" t="s">
+      <c r="D89" s="128"/>
+      <c r="E89" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F89" s="130"/>
-      <c r="G89" s="128" t="s">
+      <c r="F89" s="127"/>
+      <c r="G89" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H89" s="129"/>
-      <c r="I89" s="130" t="s">
+      <c r="H89" s="128"/>
+      <c r="I89" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J89" s="129"/>
-      <c r="K89" s="130" t="s">
+      <c r="J89" s="128"/>
+      <c r="K89" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L89" s="129"/>
+      <c r="L89" s="128"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="59">
@@ -8302,43 +8376,43 @@
     </row>
     <row r="96" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="122">
+      <c r="C97" s="121">
         <v>2021</v>
       </c>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="123"/>
-      <c r="I97" s="123"/>
-      <c r="J97" s="123"/>
-      <c r="K97" s="123"/>
-      <c r="L97" s="124"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="122"/>
+      <c r="H97" s="122"/>
+      <c r="I97" s="122"/>
+      <c r="J97" s="122"/>
+      <c r="K97" s="122"/>
+      <c r="L97" s="123"/>
     </row>
     <row r="98" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="128" t="s">
+      <c r="C98" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="129"/>
-      <c r="E98" s="128" t="s">
+      <c r="D98" s="128"/>
+      <c r="E98" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F98" s="130"/>
-      <c r="G98" s="128" t="s">
+      <c r="F98" s="127"/>
+      <c r="G98" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H98" s="129"/>
-      <c r="I98" s="130" t="s">
+      <c r="H98" s="128"/>
+      <c r="I98" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J98" s="129"/>
-      <c r="K98" s="130" t="s">
+      <c r="J98" s="128"/>
+      <c r="K98" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L98" s="129"/>
+      <c r="L98" s="128"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="59">
@@ -8532,43 +8606,43 @@
     </row>
     <row r="105" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="122">
+      <c r="C106" s="121">
         <v>2020</v>
       </c>
-      <c r="D106" s="123"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="123"/>
-      <c r="G106" s="123"/>
-      <c r="H106" s="123"/>
-      <c r="I106" s="123"/>
-      <c r="J106" s="123"/>
-      <c r="K106" s="123"/>
-      <c r="L106" s="124"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="122"/>
+      <c r="G106" s="122"/>
+      <c r="H106" s="122"/>
+      <c r="I106" s="122"/>
+      <c r="J106" s="122"/>
+      <c r="K106" s="122"/>
+      <c r="L106" s="123"/>
     </row>
     <row r="107" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="128" t="s">
+      <c r="C107" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="129"/>
-      <c r="E107" s="128" t="s">
+      <c r="D107" s="128"/>
+      <c r="E107" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F107" s="130"/>
-      <c r="G107" s="128" t="s">
+      <c r="F107" s="127"/>
+      <c r="G107" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H107" s="129"/>
-      <c r="I107" s="130" t="s">
+      <c r="H107" s="128"/>
+      <c r="I107" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J107" s="129"/>
-      <c r="K107" s="130" t="s">
+      <c r="J107" s="128"/>
+      <c r="K107" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L107" s="129"/>
+      <c r="L107" s="128"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="59">
@@ -8762,43 +8836,43 @@
     </row>
     <row r="114" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="122">
+      <c r="C115" s="121">
         <v>2019</v>
       </c>
-      <c r="D115" s="123"/>
-      <c r="E115" s="123"/>
-      <c r="F115" s="123"/>
-      <c r="G115" s="123"/>
-      <c r="H115" s="123"/>
-      <c r="I115" s="123"/>
-      <c r="J115" s="123"/>
-      <c r="K115" s="123"/>
-      <c r="L115" s="124"/>
+      <c r="D115" s="122"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="122"/>
+      <c r="G115" s="122"/>
+      <c r="H115" s="122"/>
+      <c r="I115" s="122"/>
+      <c r="J115" s="122"/>
+      <c r="K115" s="122"/>
+      <c r="L115" s="123"/>
     </row>
     <row r="116" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="128" t="s">
+      <c r="C116" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="129"/>
-      <c r="E116" s="128" t="s">
+      <c r="D116" s="128"/>
+      <c r="E116" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F116" s="130"/>
-      <c r="G116" s="128" t="s">
+      <c r="F116" s="127"/>
+      <c r="G116" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H116" s="129"/>
-      <c r="I116" s="130" t="s">
+      <c r="H116" s="128"/>
+      <c r="I116" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J116" s="129"/>
-      <c r="K116" s="130" t="s">
+      <c r="J116" s="128"/>
+      <c r="K116" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L116" s="129"/>
+      <c r="L116" s="128"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" s="59">
@@ -8992,43 +9066,43 @@
     </row>
     <row r="123" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="122">
+      <c r="C124" s="121">
         <v>2018</v>
       </c>
-      <c r="D124" s="123"/>
-      <c r="E124" s="123"/>
-      <c r="F124" s="123"/>
-      <c r="G124" s="123"/>
-      <c r="H124" s="123"/>
-      <c r="I124" s="123"/>
-      <c r="J124" s="123"/>
-      <c r="K124" s="123"/>
-      <c r="L124" s="124"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="123"/>
     </row>
     <row r="125" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="128" t="s">
+      <c r="C125" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D125" s="129"/>
-      <c r="E125" s="128" t="s">
+      <c r="D125" s="128"/>
+      <c r="E125" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F125" s="130"/>
-      <c r="G125" s="128" t="s">
+      <c r="F125" s="127"/>
+      <c r="G125" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H125" s="129"/>
-      <c r="I125" s="130" t="s">
+      <c r="H125" s="128"/>
+      <c r="I125" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J125" s="129"/>
-      <c r="K125" s="130" t="s">
+      <c r="J125" s="128"/>
+      <c r="K125" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L125" s="129"/>
+      <c r="L125" s="128"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" s="59">
@@ -9222,43 +9296,43 @@
     </row>
     <row r="133" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="122">
+      <c r="C134" s="121">
         <v>2017</v>
       </c>
-      <c r="D134" s="123"/>
-      <c r="E134" s="123"/>
-      <c r="F134" s="123"/>
-      <c r="G134" s="123"/>
-      <c r="H134" s="123"/>
-      <c r="I134" s="123"/>
-      <c r="J134" s="123"/>
-      <c r="K134" s="123"/>
-      <c r="L134" s="124"/>
+      <c r="D134" s="122"/>
+      <c r="E134" s="122"/>
+      <c r="F134" s="122"/>
+      <c r="G134" s="122"/>
+      <c r="H134" s="122"/>
+      <c r="I134" s="122"/>
+      <c r="J134" s="122"/>
+      <c r="K134" s="122"/>
+      <c r="L134" s="123"/>
     </row>
     <row r="135" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C135" s="128" t="s">
+      <c r="C135" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="129"/>
-      <c r="E135" s="128" t="s">
+      <c r="D135" s="128"/>
+      <c r="E135" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F135" s="130"/>
-      <c r="G135" s="128" t="s">
+      <c r="F135" s="127"/>
+      <c r="G135" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H135" s="129"/>
-      <c r="I135" s="130" t="s">
+      <c r="H135" s="128"/>
+      <c r="I135" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J135" s="129"/>
-      <c r="K135" s="130" t="s">
+      <c r="J135" s="128"/>
+      <c r="K135" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L135" s="129"/>
+      <c r="L135" s="128"/>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" s="59">
@@ -9452,43 +9526,43 @@
     </row>
     <row r="142" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="122">
+      <c r="C143" s="121">
         <v>2016</v>
       </c>
-      <c r="D143" s="123"/>
-      <c r="E143" s="123"/>
-      <c r="F143" s="123"/>
-      <c r="G143" s="123"/>
-      <c r="H143" s="123"/>
-      <c r="I143" s="123"/>
-      <c r="J143" s="123"/>
-      <c r="K143" s="123"/>
-      <c r="L143" s="124"/>
+      <c r="D143" s="122"/>
+      <c r="E143" s="122"/>
+      <c r="F143" s="122"/>
+      <c r="G143" s="122"/>
+      <c r="H143" s="122"/>
+      <c r="I143" s="122"/>
+      <c r="J143" s="122"/>
+      <c r="K143" s="122"/>
+      <c r="L143" s="123"/>
     </row>
     <row r="144" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C144" s="128" t="s">
+      <c r="C144" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D144" s="129"/>
-      <c r="E144" s="128" t="s">
+      <c r="D144" s="128"/>
+      <c r="E144" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F144" s="130"/>
-      <c r="G144" s="128" t="s">
+      <c r="F144" s="127"/>
+      <c r="G144" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H144" s="129"/>
-      <c r="I144" s="130" t="s">
+      <c r="H144" s="128"/>
+      <c r="I144" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J144" s="129"/>
-      <c r="K144" s="130" t="s">
+      <c r="J144" s="128"/>
+      <c r="K144" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L144" s="129"/>
+      <c r="L144" s="128"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="59">
@@ -9682,43 +9756,43 @@
     </row>
     <row r="151" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="152" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="122">
+      <c r="C152" s="121">
         <v>2015</v>
       </c>
-      <c r="D152" s="123"/>
-      <c r="E152" s="123"/>
-      <c r="F152" s="123"/>
-      <c r="G152" s="123"/>
-      <c r="H152" s="123"/>
-      <c r="I152" s="123"/>
-      <c r="J152" s="123"/>
-      <c r="K152" s="123"/>
-      <c r="L152" s="124"/>
+      <c r="D152" s="122"/>
+      <c r="E152" s="122"/>
+      <c r="F152" s="122"/>
+      <c r="G152" s="122"/>
+      <c r="H152" s="122"/>
+      <c r="I152" s="122"/>
+      <c r="J152" s="122"/>
+      <c r="K152" s="122"/>
+      <c r="L152" s="123"/>
     </row>
     <row r="153" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C153" s="128" t="s">
+      <c r="C153" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D153" s="129"/>
-      <c r="E153" s="128" t="s">
+      <c r="D153" s="128"/>
+      <c r="E153" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F153" s="130"/>
-      <c r="G153" s="128" t="s">
+      <c r="F153" s="127"/>
+      <c r="G153" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H153" s="129"/>
-      <c r="I153" s="130" t="s">
+      <c r="H153" s="128"/>
+      <c r="I153" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J153" s="129"/>
-      <c r="K153" s="130" t="s">
+      <c r="J153" s="128"/>
+      <c r="K153" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L153" s="129"/>
+      <c r="L153" s="128"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" s="59">
@@ -9902,43 +9976,43 @@
     </row>
     <row r="160" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="161" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="122">
+      <c r="C161" s="121">
         <v>2014</v>
       </c>
-      <c r="D161" s="123"/>
-      <c r="E161" s="123"/>
-      <c r="F161" s="123"/>
-      <c r="G161" s="123"/>
-      <c r="H161" s="123"/>
-      <c r="I161" s="123"/>
-      <c r="J161" s="123"/>
-      <c r="K161" s="123"/>
-      <c r="L161" s="124"/>
+      <c r="D161" s="122"/>
+      <c r="E161" s="122"/>
+      <c r="F161" s="122"/>
+      <c r="G161" s="122"/>
+      <c r="H161" s="122"/>
+      <c r="I161" s="122"/>
+      <c r="J161" s="122"/>
+      <c r="K161" s="122"/>
+      <c r="L161" s="123"/>
     </row>
     <row r="162" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C162" s="128" t="s">
+      <c r="C162" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D162" s="129"/>
-      <c r="E162" s="128" t="s">
+      <c r="D162" s="128"/>
+      <c r="E162" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F162" s="130"/>
-      <c r="G162" s="128" t="s">
+      <c r="F162" s="127"/>
+      <c r="G162" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H162" s="129"/>
-      <c r="I162" s="130" t="s">
+      <c r="H162" s="128"/>
+      <c r="I162" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J162" s="129"/>
-      <c r="K162" s="130" t="s">
+      <c r="J162" s="128"/>
+      <c r="K162" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L162" s="129"/>
+      <c r="L162" s="128"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B163" s="59">
@@ -10122,43 +10196,43 @@
     </row>
     <row r="169" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="122" t="s">
+      <c r="C170" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="D170" s="123"/>
-      <c r="E170" s="123"/>
-      <c r="F170" s="123"/>
-      <c r="G170" s="123"/>
-      <c r="H170" s="123"/>
-      <c r="I170" s="123"/>
-      <c r="J170" s="123"/>
-      <c r="K170" s="123"/>
-      <c r="L170" s="124"/>
+      <c r="D170" s="122"/>
+      <c r="E170" s="122"/>
+      <c r="F170" s="122"/>
+      <c r="G170" s="122"/>
+      <c r="H170" s="122"/>
+      <c r="I170" s="122"/>
+      <c r="J170" s="122"/>
+      <c r="K170" s="122"/>
+      <c r="L170" s="123"/>
     </row>
     <row r="171" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C171" s="128" t="s">
+      <c r="C171" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="129"/>
-      <c r="E171" s="128" t="s">
+      <c r="D171" s="128"/>
+      <c r="E171" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F171" s="130"/>
-      <c r="G171" s="128" t="s">
+      <c r="F171" s="127"/>
+      <c r="G171" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H171" s="129"/>
-      <c r="I171" s="130" t="s">
+      <c r="H171" s="128"/>
+      <c r="I171" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J171" s="129"/>
-      <c r="K171" s="130" t="s">
+      <c r="J171" s="128"/>
+      <c r="K171" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L171" s="129"/>
+      <c r="L171" s="128"/>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B172" s="59">
@@ -10343,43 +10417,43 @@
     </row>
     <row r="178" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="179" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="122" t="s">
+      <c r="C179" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D179" s="123"/>
-      <c r="E179" s="123"/>
-      <c r="F179" s="123"/>
-      <c r="G179" s="123"/>
-      <c r="H179" s="123"/>
-      <c r="I179" s="123"/>
-      <c r="J179" s="123"/>
-      <c r="K179" s="123"/>
-      <c r="L179" s="124"/>
+      <c r="D179" s="122"/>
+      <c r="E179" s="122"/>
+      <c r="F179" s="122"/>
+      <c r="G179" s="122"/>
+      <c r="H179" s="122"/>
+      <c r="I179" s="122"/>
+      <c r="J179" s="122"/>
+      <c r="K179" s="122"/>
+      <c r="L179" s="123"/>
     </row>
     <row r="180" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C180" s="128" t="s">
+      <c r="C180" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D180" s="129"/>
-      <c r="E180" s="128" t="s">
+      <c r="D180" s="128"/>
+      <c r="E180" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F180" s="130"/>
-      <c r="G180" s="128" t="s">
+      <c r="F180" s="127"/>
+      <c r="G180" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H180" s="129"/>
-      <c r="I180" s="130" t="s">
+      <c r="H180" s="128"/>
+      <c r="I180" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J180" s="129"/>
-      <c r="K180" s="130" t="s">
+      <c r="J180" s="128"/>
+      <c r="K180" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L180" s="129"/>
+      <c r="L180" s="128"/>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B181" s="59">
@@ -10564,43 +10638,43 @@
     </row>
     <row r="187" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="188" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="122" t="s">
+      <c r="C188" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D188" s="123"/>
-      <c r="E188" s="123"/>
-      <c r="F188" s="123"/>
-      <c r="G188" s="123"/>
-      <c r="H188" s="123"/>
-      <c r="I188" s="123"/>
-      <c r="J188" s="123"/>
-      <c r="K188" s="123"/>
-      <c r="L188" s="124"/>
+      <c r="D188" s="122"/>
+      <c r="E188" s="122"/>
+      <c r="F188" s="122"/>
+      <c r="G188" s="122"/>
+      <c r="H188" s="122"/>
+      <c r="I188" s="122"/>
+      <c r="J188" s="122"/>
+      <c r="K188" s="122"/>
+      <c r="L188" s="123"/>
     </row>
     <row r="189" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C189" s="128" t="s">
+      <c r="C189" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D189" s="129"/>
-      <c r="E189" s="128" t="s">
+      <c r="D189" s="128"/>
+      <c r="E189" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F189" s="130"/>
-      <c r="G189" s="128" t="s">
+      <c r="F189" s="127"/>
+      <c r="G189" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H189" s="129"/>
-      <c r="I189" s="130" t="s">
+      <c r="H189" s="128"/>
+      <c r="I189" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J189" s="129"/>
-      <c r="K189" s="130" t="s">
+      <c r="J189" s="128"/>
+      <c r="K189" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L189" s="129"/>
+      <c r="L189" s="128"/>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B190" s="59">
@@ -10785,43 +10859,43 @@
     </row>
     <row r="196" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="197" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="122" t="s">
+      <c r="C197" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="D197" s="123"/>
-      <c r="E197" s="123"/>
-      <c r="F197" s="123"/>
-      <c r="G197" s="123"/>
-      <c r="H197" s="123"/>
-      <c r="I197" s="123"/>
-      <c r="J197" s="123"/>
-      <c r="K197" s="123"/>
-      <c r="L197" s="124"/>
+      <c r="D197" s="122"/>
+      <c r="E197" s="122"/>
+      <c r="F197" s="122"/>
+      <c r="G197" s="122"/>
+      <c r="H197" s="122"/>
+      <c r="I197" s="122"/>
+      <c r="J197" s="122"/>
+      <c r="K197" s="122"/>
+      <c r="L197" s="123"/>
     </row>
     <row r="198" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C198" s="128" t="s">
+      <c r="C198" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D198" s="129"/>
-      <c r="E198" s="128" t="s">
+      <c r="D198" s="128"/>
+      <c r="E198" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F198" s="130"/>
-      <c r="G198" s="128" t="s">
+      <c r="F198" s="127"/>
+      <c r="G198" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H198" s="129"/>
-      <c r="I198" s="130" t="s">
+      <c r="H198" s="128"/>
+      <c r="I198" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J198" s="129"/>
-      <c r="K198" s="130" t="s">
+      <c r="J198" s="128"/>
+      <c r="K198" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L198" s="129"/>
+      <c r="L198" s="128"/>
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B199" s="59">
@@ -11006,43 +11080,43 @@
     </row>
     <row r="205" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="206" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C206" s="122" t="s">
+      <c r="C206" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="D206" s="123"/>
-      <c r="E206" s="123"/>
-      <c r="F206" s="123"/>
-      <c r="G206" s="123"/>
-      <c r="H206" s="123"/>
-      <c r="I206" s="123"/>
-      <c r="J206" s="123"/>
-      <c r="K206" s="123"/>
-      <c r="L206" s="124"/>
+      <c r="D206" s="122"/>
+      <c r="E206" s="122"/>
+      <c r="F206" s="122"/>
+      <c r="G206" s="122"/>
+      <c r="H206" s="122"/>
+      <c r="I206" s="122"/>
+      <c r="J206" s="122"/>
+      <c r="K206" s="122"/>
+      <c r="L206" s="123"/>
     </row>
     <row r="207" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C207" s="128" t="s">
+      <c r="C207" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D207" s="129"/>
-      <c r="E207" s="128" t="s">
+      <c r="D207" s="128"/>
+      <c r="E207" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F207" s="130"/>
-      <c r="G207" s="128" t="s">
+      <c r="F207" s="127"/>
+      <c r="G207" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H207" s="129"/>
-      <c r="I207" s="130" t="s">
+      <c r="H207" s="128"/>
+      <c r="I207" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J207" s="129"/>
-      <c r="K207" s="130" t="s">
+      <c r="J207" s="128"/>
+      <c r="K207" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L207" s="129"/>
+      <c r="L207" s="128"/>
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B208" s="59">
@@ -11227,43 +11301,43 @@
     </row>
     <row r="214" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="215" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="122" t="s">
+      <c r="C215" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D215" s="123"/>
-      <c r="E215" s="123"/>
-      <c r="F215" s="123"/>
-      <c r="G215" s="123"/>
-      <c r="H215" s="123"/>
-      <c r="I215" s="123"/>
-      <c r="J215" s="123"/>
-      <c r="K215" s="123"/>
-      <c r="L215" s="124"/>
+      <c r="D215" s="122"/>
+      <c r="E215" s="122"/>
+      <c r="F215" s="122"/>
+      <c r="G215" s="122"/>
+      <c r="H215" s="122"/>
+      <c r="I215" s="122"/>
+      <c r="J215" s="122"/>
+      <c r="K215" s="122"/>
+      <c r="L215" s="123"/>
     </row>
     <row r="216" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C216" s="128" t="s">
+      <c r="C216" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D216" s="129"/>
-      <c r="E216" s="128" t="s">
+      <c r="D216" s="128"/>
+      <c r="E216" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F216" s="130"/>
-      <c r="G216" s="128" t="s">
+      <c r="F216" s="127"/>
+      <c r="G216" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H216" s="129"/>
-      <c r="I216" s="130" t="s">
+      <c r="H216" s="128"/>
+      <c r="I216" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J216" s="129"/>
-      <c r="K216" s="130" t="s">
+      <c r="J216" s="128"/>
+      <c r="K216" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L216" s="129"/>
+      <c r="L216" s="128"/>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="59">
@@ -11448,43 +11522,43 @@
     </row>
     <row r="223" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="224" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C224" s="133" t="s">
+      <c r="C224" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="D224" s="131"/>
-      <c r="E224" s="131"/>
-      <c r="F224" s="131"/>
-      <c r="G224" s="131"/>
-      <c r="H224" s="131"/>
-      <c r="I224" s="131"/>
-      <c r="J224" s="131"/>
-      <c r="K224" s="131"/>
-      <c r="L224" s="132"/>
+      <c r="D224" s="130"/>
+      <c r="E224" s="130"/>
+      <c r="F224" s="130"/>
+      <c r="G224" s="130"/>
+      <c r="H224" s="130"/>
+      <c r="I224" s="130"/>
+      <c r="J224" s="130"/>
+      <c r="K224" s="130"/>
+      <c r="L224" s="131"/>
     </row>
     <row r="225" spans="2:12" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C225" s="128" t="s">
+      <c r="C225" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D225" s="129"/>
-      <c r="E225" s="128" t="s">
+      <c r="D225" s="128"/>
+      <c r="E225" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F225" s="130"/>
-      <c r="G225" s="128" t="s">
+      <c r="F225" s="127"/>
+      <c r="G225" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H225" s="129"/>
-      <c r="I225" s="130" t="s">
+      <c r="H225" s="128"/>
+      <c r="I225" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J225" s="129"/>
-      <c r="K225" s="130" t="s">
+      <c r="J225" s="128"/>
+      <c r="K225" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="L225" s="129"/>
+      <c r="L225" s="128"/>
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B226" s="59">
@@ -11669,24 +11743,89 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="C206:L206"/>
-    <mergeCell ref="C224:L224"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="I225:J225"/>
-    <mergeCell ref="K225:L225"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="I216:J216"/>
-    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C72:L72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="C80:L80"/>
+    <mergeCell ref="C97:L97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="C124:L124"/>
+    <mergeCell ref="C115:L115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="C106:L106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="C134:L134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="C143:L143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="I144:J144"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="C152:L152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="C161:L161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="K162:L162"/>
     <mergeCell ref="C170:L170"/>
     <mergeCell ref="C171:D171"/>
     <mergeCell ref="E171:F171"/>
@@ -11711,89 +11850,24 @@
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="E198:F198"/>
     <mergeCell ref="G198:H198"/>
-    <mergeCell ref="C152:L152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="C161:L161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="C134:L134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="C143:L143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="I144:J144"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="C97:L97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="C124:L124"/>
-    <mergeCell ref="C115:L115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="C106:L106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="C88:L88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C72:L72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="C80:L80"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="C206:L206"/>
+    <mergeCell ref="C224:L224"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="I207:J207"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="I225:J225"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11802,12 +11876,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B9:I241"/>
+  <dimension ref="B9:I242"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D34" sqref="D34"/>
-      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
+      <selection pane="bottomLeft" activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11824,10 +11898,10 @@
   <sheetData>
     <row r="9" spans="2:5" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="28" t="s">
         <v>75</v>
       </c>
@@ -14887,13 +14961,13 @@
         <v>45658</v>
       </c>
       <c r="C229" s="88">
-        <v>51688032.860000007</v>
+        <v>52273251.370000005</v>
       </c>
       <c r="D229" s="24">
-        <v>13921.492330000003</v>
+        <v>13873.092329999999</v>
       </c>
       <c r="E229" s="23">
-        <v>3712.8227085694912</v>
+        <v>3767.9595959266571</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.25">
@@ -14901,13 +14975,13 @@
         <v>45689</v>
       </c>
       <c r="C230" s="87">
-        <v>51840212.350000009</v>
+        <v>51316513.050000027</v>
       </c>
       <c r="D230" s="83">
-        <v>13126.750000000002</v>
+        <v>13006.75</v>
       </c>
       <c r="E230" s="22">
-        <v>3949.2039042413394</v>
+        <v>3945.3755204028698</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.25">
@@ -14915,13 +14989,13 @@
         <v>45717</v>
       </c>
       <c r="C231" s="87">
-        <v>44753026.469999976</v>
+        <v>42774281.660000011</v>
       </c>
       <c r="D231" s="83">
-        <v>11116.381499999992</v>
+        <v>10616.381499999992</v>
       </c>
       <c r="E231" s="22">
-        <v>4025.8627746807724</v>
+        <v>4029.0829469532573</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.25">
@@ -14929,13 +15003,13 @@
         <v>45748</v>
       </c>
       <c r="C232" s="87">
-        <v>40667949.469999999</v>
+        <v>40689244.62999998</v>
       </c>
       <c r="D232" s="83">
         <v>10247.333999999999</v>
       </c>
       <c r="E232" s="22">
-        <v>3968.6370591609489</v>
+        <v>3970.7151762595017</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.25">
@@ -14943,13 +15017,13 @@
         <v>45778</v>
       </c>
       <c r="C233" s="87">
-        <v>49471774.779999994</v>
+        <v>48570177.579999983</v>
       </c>
       <c r="D233" s="83">
-        <v>11989.13493</v>
+        <v>11939.13493</v>
       </c>
       <c r="E233" s="22">
-        <v>4126.3840192680182</v>
+        <v>4068.1488118503057</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.25">
@@ -14957,13 +15031,13 @@
         <v>45809</v>
       </c>
       <c r="C234" s="87">
-        <v>48434853.270000003</v>
+        <v>48137314.979999989</v>
       </c>
       <c r="D234" s="83">
-        <v>11708.424939999999</v>
+        <v>11708.424939999995</v>
       </c>
       <c r="E234" s="22">
-        <v>4136.7522547400822</v>
+        <v>4111.3399305782295</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.25">
@@ -14971,13 +15045,13 @@
         <v>45839</v>
       </c>
       <c r="C235" s="87">
-        <v>46386281.429999992</v>
+        <v>45697484.219999991</v>
       </c>
       <c r="D235" s="83">
-        <v>11142.483450000002</v>
+        <v>10992.483450000002</v>
       </c>
       <c r="E235" s="22">
-        <v>4163.0110233639152</v>
+        <v>4157.1574274237355</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.25">
@@ -14985,13 +15059,13 @@
         <v>45870</v>
       </c>
       <c r="C236" s="87">
-        <v>67542642.38000004</v>
+        <v>67459354.710000023</v>
       </c>
       <c r="D236" s="83">
         <v>16138.349990000001</v>
       </c>
       <c r="E236" s="22">
-        <v>4185.2260250801537</v>
+        <v>4180.0651709623771</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.25">
@@ -14999,13 +15073,13 @@
         <v>45901</v>
       </c>
       <c r="C237" s="87">
-        <v>71164921.290000007</v>
+        <v>70898462.429999992</v>
       </c>
       <c r="D237" s="83">
         <v>17876.615479999989</v>
       </c>
       <c r="E237" s="22">
-        <v>3980.8945585711085</v>
+        <v>3965.9891163022339</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.25">
@@ -15013,13 +15087,13 @@
         <v>45931</v>
       </c>
       <c r="C238" s="87">
-        <v>67605200</v>
+        <v>67587320.049999997</v>
       </c>
       <c r="D238" s="83">
-        <v>17225</v>
+        <v>17225.365980000002</v>
       </c>
       <c r="E238" s="22">
-        <v>3924.8301886792451</v>
+        <v>3923.7087983195343</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.25">
@@ -15027,13 +15101,13 @@
         <v>45962</v>
       </c>
       <c r="C239" s="87">
-        <v>68362435.220000058</v>
+        <v>68230882.410000056</v>
       </c>
       <c r="D239" s="83">
-        <v>17550.117920000001</v>
+        <v>17540.117920000001</v>
       </c>
       <c r="E239" s="22">
-        <v>3895.2692814727284</v>
+        <v>3889.9899488247029</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.25">
@@ -15041,17 +15115,31 @@
         <v>45992</v>
       </c>
       <c r="C240" s="105">
-        <v>63238076.390000038</v>
+        <v>65045396.160000019</v>
       </c>
       <c r="D240" s="21">
-        <v>16406.310449999997</v>
+        <v>16912.710449999995</v>
       </c>
       <c r="E240" s="20">
-        <v>3854.4971206490882</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="55" t="s">
+        <v>3845.947481469479</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="92">
+        <v>46023</v>
+      </c>
+      <c r="C241" s="88">
+        <v>47085142</v>
+      </c>
+      <c r="D241" s="24">
+        <v>12985</v>
+      </c>
+      <c r="E241" s="23">
+        <v>3626.1179822872546</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -15069,8 +15157,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A68A96D9EA1D9545B6EFAC7C8387E0F1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7ec3087025b08553a15acfd727ce32a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f4d36658-c2d2-4aca-88d8-9ecde1689242" xmlns:ns3="b293f0a2-03ef-45d5-a257-c7b71ce04207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57b44154498da94931ef49857a49239d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A68A96D9EA1D9545B6EFAC7C8387E0F1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0d13b557246e747723a516aa573a1fbd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f4d36658-c2d2-4aca-88d8-9ecde1689242" xmlns:ns3="b293f0a2-03ef-45d5-a257-c7b71ce04207" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90407ce9be83cd6c392ee726c6e0a5b5" ns2:_="" ns3:_="">
     <xsd:import namespace="f4d36658-c2d2-4aca-88d8-9ecde1689242"/>
     <xsd:import namespace="b293f0a2-03ef-45d5-a257-c7b71ce04207"/>
     <xsd:element name="properties">
@@ -15310,14 +15398,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b293f0a2-03ef-45d5-a257-c7b71ce04207" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4d36658-c2d2-4aca-88d8-9ecde1689242">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15330,11 +15411,18 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b293f0a2-03ef-45d5-a257-c7b71ce04207" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4d36658-c2d2-4aca-88d8-9ecde1689242">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60CCB5C9-CA0B-4358-867B-10C4F013D5EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC8F936-4AF3-4FF9-8B1E-0736929643E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -15353,12 +15441,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{022A63F2-73A4-4411-850D-5A778E7E8365}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D8E8C4-402A-4BF8-8B26-7B3500893BCB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b293f0a2-03ef-45d5-a257-c7b71ce04207"/>
-    <ds:schemaRef ds:uri="f4d36658-c2d2-4aca-88d8-9ecde1689242"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15372,9 +15457,12 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D8E8C4-402A-4BF8-8B26-7B3500893BCB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{022A63F2-73A4-4411-850D-5A778E7E8365}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b293f0a2-03ef-45d5-a257-c7b71ce04207"/>
+    <ds:schemaRef ds:uri="f4d36658-c2d2-4aca-88d8-9ecde1689242"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>